--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_37.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_37.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1806020066889632</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'G:7']]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.98, 19.0)]</t>
+          <t>[['B', 'F#', 'B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(32.074829, 39.540045)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:24.838594', '0:00:30.028253')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1517241379310345</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28)]</t>
+          <t>[('0:00:00.380000', '0:00:05.300000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:10.880000', '0:00:22.200000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1309523809523809</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Ab', 'Db']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(8.504874, 12.870226)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(119.66, 123.07)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2913752913752914</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min', 'A#:7/G#', 'D#:min/F#']]</t>
-        </is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1885964912280702</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#']]</t>
+          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.32, 19.12)]</t>
+          <t>[['B', 'E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(15.6, 27.52)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:10.540000', '0:00:13.260000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.459543', '0:00:06.357029')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2626728110599078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:24.520000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3111111111111111</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C', 'G'], ['G', 'C', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1916666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'A', 'E'], ['E', 'A', 'E', 'E']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(10.090897, 18.241101), (6.886543, 14.990307)]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(122.976598, 134.098957), (15.027029, 22.457415)]</t>
+          <t>[('0:00:08.080000', '0:00:19.060000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:03:46.620000', '0:03:50.460000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_83</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06554621848739496</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5230769230769231</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'G']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(46.365011, 53.946326)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(7.55, 11.06)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04738805970149254</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min7/A#', 'C:7', 'F:maj']]</t>
+          <t>[['F', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.21, 15.93)]</t>
+          <t>[['E', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(71.1, 78.7)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.520000', '0:00:20.940000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:14.868843', '0:00:21.242721')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(27.771, 41.282)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(9.92, 11.96)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4689655172413794</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.413696, 12.303038)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(128.54, 133.9)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1671826625386997</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G'], ['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G'], ['C', 'D', 'G']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444), (19.151224, 25.606371)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443), (43.100468, 51.657021)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:16.340000', '0:00:44.360000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:maj', 'G#:maj', 'D#:maj'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.86, 18.62), (127.6, 132.4), (0.78, 5.98)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(39.16, 42.24), (80.42, 84.64), (10.82, 17.08)]</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(15.56, 21.08)]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1884615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F/5', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.619, 16.742)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1215686274509804</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'G'], ['F', 'C', 'C'], ['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'E'], ['D', 'A', 'A'], ['A', 'D', 'A']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(11.651179, 16.527369), (10.014172, 15.018072), (103.520929, 108.664149)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(90.185647, 97.395443), (85.437167, 91.834264), (82.290863, 90.185647)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1128775834658188</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(142.379117, 149.240614)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.615532, 8.760294)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
